--- a/SourceCode/2023/August2023/Swapna/Task 25/Information.xlsx
+++ b/SourceCode/2023/August2023/Swapna/Task 25/Information.xlsx
@@ -7,6 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -107,6 +108,57 @@
   </x:si>
   <x:si>
     <x:t>83 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Months</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath 120% Hike in UiPath Developer Job Offer!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath job offer 2 years non it experience more than 100% hike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath 15 lakhs 3 years #UiPath experience #job offer #vajrangtalks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>637 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath 4 UiPath Job Offers after RPA developer in 30 Days Training</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath Why More UiPath Job Openings than other tools #uipath #shorts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.7K views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers - 1200000 PA 100% hike RPA Developer ! Vajrang b !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers - Got 2 Uipath Job Offres ! Vajrang b !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers - Professinal Growth and Development ! Vajrang b !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers - Professinal Growth ! Vajrang b !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers - 200% Confidence Gained ! Vajrang b !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers ! congrats rpa developer ! vajrang !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath Job Offers | UiPath Training | RPA Dev In 30 Days | Onsite job offer congrats</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -613,4 +665,167 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C13"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>